--- a/Tools/excel2json/excel/WeaponSkillArsenalDefine.xlsx
+++ b/Tools/excel2json/excel/WeaponSkillArsenalDefine.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -57,10 +57,16 @@
     <t>描述</t>
   </si>
   <si>
-    <t>[1001]</t>
-  </si>
-  <si>
-    <t>通用空手技能组合</t>
+    <t>[1001,1002,1003,1004]</t>
+  </si>
+  <si>
+    <t>大剑技能组合</t>
+  </si>
+  <si>
+    <t>[1011,1012,1013,1014]</t>
+  </si>
+  <si>
+    <t>踢技1</t>
   </si>
   <si>
     <t>技能的类别</t>
@@ -1070,7 +1076,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:AL$1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="2"/>
@@ -1123,6 +1129,17 @@
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1"/>
@@ -1171,46 +1188,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/WeaponSkillArsenalDefine.xlsx
+++ b/Tools/excel2json/excel/WeaponSkillArsenalDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponSkillArsenalDefine" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>踢技1</t>
+  </si>
+  <si>
+    <t>[1003001,1003002,1003003]</t>
+  </si>
+  <si>
+    <t>牛头战士默认技能组</t>
   </si>
   <si>
     <t>技能的类别</t>
@@ -1076,7 +1082,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="2"/>
@@ -1140,6 +1146,17 @@
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1"/>
@@ -1188,46 +1205,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
